--- a/Professionalquess.xlsx
+++ b/Professionalquess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaos/Library/Mobile Documents/com~apple~CloudDocs/node_project/qc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBA7CF4-45DA-164D-91CB-7027A9837E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C086A582-8E95-CC41-9CE5-2FA8D5DB7F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="4160" windowWidth="34320" windowHeight="17440" xr2:uid="{9CBFF4BC-2EAE-0242-A983-C8531F11B9FA}"/>
+    <workbookView xWindow="3360" yWindow="9920" windowWidth="43900" windowHeight="17440" xr2:uid="{9CBFF4BC-2EAE-0242-A983-C8531F11B9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,115 +63,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好的没问题$随随便便$中国万岁$人类和平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随随便便$中国万岁$人类和平$祖国万岁$陕西师范大学</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowlege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采煤系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正确$错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划计划回家回家回家回家后两节课回来看见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他天天怨天尤人突然突然突然投入与他人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又吐又吐又吐又题 u 液体 u 液体液体 u 液体 u 题 u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8款坎坎坷坷坎坎坷坷坎坎坷坷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9哥哥哥哥哥哥哥哥哥哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0乒乒乓乓乒乒乓乓乒乒乓乓品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/stastic/000000.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/stastic/1111.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/stastic/2222.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/weixin/music/liang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/weixin/music/liang.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowlege</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depart_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机电运输系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空气压缩机司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刮板输送机司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掘进系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采煤系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机电运输系统，空气压缩机司机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掘进系统，刮板输送机司机，掘进系统掘进系统掘进系统掘进系统掘进系统掘进系统掘进系统掘进系统。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采煤系统，刮板输送机司机。采煤系统采煤系统采煤系统采煤系统采煤系统采煤系统采煤系统采煤系统采煤系统采煤系统采煤系统三道题第三道题第三道题第三道题第三道题第三道题第三道题。</t>
+  </si>
+  <si>
+    <t>当班班组长对当班所管辖范围内的安全负主要责任，是当班所在班组的安全生产第一责任人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采煤班班长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当班跟班队长是当班所在班组的安全生产第一责任人。</t>
+  </si>
+  <si>
+    <t>对SO2，和CO2的中毒者只能进行（  ）人工呼吸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口对口吹气法$仰卧压胸法$.俯卧压背法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工呼吸适用于（  ）引起的呼吸停止、假死状态者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触电休克$溺水$有害气体中毒和窒息$外伤窒息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +149,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,11 +183,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,16 +508,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A569C5F-AB07-0D4C-B72B-65B8748D716C}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="82.5" customWidth="1"/>
     <col min="5" max="5" width="52.1640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
@@ -575,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -593,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -613,128 +570,104 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
+      <c r="I5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{36FAB5E1-F331-804B-B65F-3E6EA32AE1A3}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{C0A4B3AD-57C0-5042-B6EE-C4C8DB09315A}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{6C61E924-518C-924C-B9D7-6076656B1AC4}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{94A3AED6-145C-A04C-83A6-CFD0FA36D151}"/>
-    <hyperlink ref="K3" r:id="rId5" xr:uid="{A3B02A3D-93EC-B944-B1BE-28A1697BEBD3}"/>
-    <hyperlink ref="K4" r:id="rId6" xr:uid="{3518FA34-7169-0A4B-9C61-6A3342967D69}"/>
-    <hyperlink ref="L2" r:id="rId7" xr:uid="{CFB5F630-632D-D74D-9107-5F3A35E5C2FF}"/>
-    <hyperlink ref="L4" r:id="rId8" xr:uid="{DE9B589F-F1F9-AB43-BD9A-7B00171CB932}"/>
-    <hyperlink ref="L3" r:id="rId9" xr:uid="{37053C1B-BD3F-DC49-88F3-B1FF99380561}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>